--- a/JS-Team/evidence.xlsx
+++ b/JS-Team/evidence.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahana\Downloads\anurg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F19C7B-597A-4A22-A2FE-6E2CB379CDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="16220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>TeamName</t>
   </si>
@@ -70,6 +64,30 @@
     <t>Community</t>
   </si>
   <si>
+    <t>JS-Team</t>
+  </si>
+  <si>
+    <t>iaa1kk3qg20e2vmcuzeuau8yu9kzqhcr3eweqfwxkk</t>
+  </si>
+  <si>
+    <t>stars1kk3qg20e2vmcuzeuau8yu9kzqhcr3ewephe2lk</t>
+  </si>
+  <si>
+    <t>juno1kk3qg20e2vmcuzeuau8yu9kzqhcr3eweredvnm</t>
+  </si>
+  <si>
+    <t>uptick10syj6kf96mcnx2462nn8cc8klaaqjahzft7n35</t>
+  </si>
+  <si>
+    <t>omniflix1kk3qg20e2vmcuzeuau8yu9kzqhcr3eweg4lwre</t>
+  </si>
+  <si>
+    <t>Jack-S#8740</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>TxHash</t>
   </si>
   <si>
@@ -120,36 +138,18 @@
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
-  <si>
-    <t>nkbblocks</t>
-  </si>
-  <si>
-    <t>anurag#9982</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>stars1vxeek5v8vw30h2m5hy9jat4w0ygkuqy9dm84r6</t>
-  </si>
-  <si>
-    <t>juno1vxeek5v8vw30h2m5hy9jat4w0ygkuqy904nn0h</t>
-  </si>
-  <si>
-    <t>iaa1vxeek5v8vw30h2m5hy9jat4w0ygkuqy9v9se26</t>
-  </si>
-  <si>
-    <t>omniflix1vxeek5v8vw30h2m5hy9jat4w0ygkuqy9yep3l4</t>
-  </si>
-  <si>
-    <t>uptick1swxdrv38n8php20hgdjcdkdvn7atp75uyfdhey</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -168,8 +168,159 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +333,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,20 +528,327 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -277,9 +921,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -537,29 +1178,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="44.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="43.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="46.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" ht="13.95" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,573 +1226,629 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
+    <row r="2" ht="12.75" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="16.35" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1160,33 +1857,34 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1195,33 +1893,34 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1230,33 +1929,34 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25">
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1265,293 +1965,321 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+    <row r="1" ht="13.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>